--- a/DataTables/Datas/__tables__.xlsx
+++ b/DataTables/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\MyProject\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635523B-BEB0-4528-9BA9-61D845DDF830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833B887B-E23A-4FAD-ABD8-C984B31D12E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -109,74 +109,69 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>PlayerConfig</t>
-  </si>
-  <si>
-    <t>Data_PlayerConfig</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>PlayerConfig.xlsx</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>map</t>
+    <t>list</t>
+  </si>
+  <si>
+    <t>Table_MangaLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table_MangaNode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table_MangaItem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Level@Manga.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node@Manga.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item@Manga.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>Player configuration data</t>
-  </si>
-  <si>
-    <t>Buffs</t>
-  </si>
-  <si>
-    <t>Data_Buffs</t>
-  </si>
-  <si>
-    <t>Buffs.xlsx</t>
-  </si>
-  <si>
-    <t>Buff system configuration</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>LevelData</t>
-  </si>
-  <si>
-    <t>Data_LevelData</t>
-  </si>
-  <si>
-    <t>LevelData@StarFireLevelSpawning.xlsx</t>
-  </si>
-  <si>
-    <t>Level configuration data</t>
-  </si>
-  <si>
-    <t>BackgroundSpawnData</t>
-  </si>
-  <si>
-    <t>Data_Background</t>
-  </si>
-  <si>
-    <t>BackgroundSpawnData@StarFireLevelSpawning.xlsx</t>
-  </si>
-  <si>
-    <t>Background spawn configuration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画关卡表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画关卡-节点表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画关卡-节点-页表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MangaLevel</t>
+  </si>
+  <si>
+    <t>MangaNode</t>
+  </si>
+  <si>
+    <t>MangaItem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,11 +182,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -199,6 +196,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -227,11 +230,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,13 +538,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.44140625" customWidth="1"/>
     <col min="3" max="3" width="30.21875" customWidth="1"/>
@@ -548,13 +552,13 @@
     <col min="5" max="5" width="50.77734375" customWidth="1"/>
     <col min="6" max="6" width="26.21875" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="31.21875" customWidth="1"/>
     <col min="10" max="10" width="9.21875" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -622,7 +626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -653,7 +657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -666,128 +670,112 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -795,12 +783,12 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -808,12 +796,12 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -821,12 +809,12 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -834,7 +822,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -847,7 +835,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -860,12 +848,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -873,7 +861,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -886,7 +874,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -899,7 +887,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="15">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -912,7 +900,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="15">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -925,7 +913,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -938,12 +926,12 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -951,12 +939,12 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -964,12 +952,12 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -977,138 +965,13 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" ht="15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{E6821D4B-47F4-4501-8178-666AC5D819C2}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{81D26C9F-1284-45A7-83F7-E5EC0C8389F8}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{60D99074-571F-465B-90FD-307324B41029}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DataTables/Datas/__tables__.xlsx
+++ b/DataTables/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\MyProject\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833B887B-E23A-4FAD-ABD8-C984B31D12E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511C03D9-93A1-4054-A29A-22924F198DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -110,46 +110,23 @@
   </si>
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>Table_MangaLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table_MangaNode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Table_MangaItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Level@Manga.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Node@Manga.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Item@Manga.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>漫画关卡表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>漫画关卡-节点表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -158,13 +135,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MangaLevel</t>
-  </si>
-  <si>
     <t>MangaNode</t>
   </si>
   <si>
-    <t>MangaItem</t>
+    <t>map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MangaPage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table_MangaPage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page@Manga.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -538,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -659,101 +646,85 @@
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
@@ -827,7 +798,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -853,7 +824,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -905,7 +876,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -918,7 +889,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -939,38 +910,11 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{E6821D4B-47F4-4501-8178-666AC5D819C2}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{81D26C9F-1284-45A7-83F7-E5EC0C8389F8}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{60D99074-571F-465B-90FD-307324B41029}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{81D26C9F-1284-45A7-83F7-E5EC0C8389F8}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{60D99074-571F-465B-90FD-307324B41029}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
